--- a/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="763">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -344,6 +344,15 @@
     <t xml:space="preserve">Winter Warning</t>
   </si>
   <si>
+    <t xml:space="preserve">worldend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok</t>
+  </si>
+  <si>
     <t xml:space="preserve">jump</t>
   </si>
   <si>
@@ -381,6 +390,84 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チリンチリーン！ 
+キミが冒険を開始してから…
+なんと2千年もの時が過ぎました！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinkle-tinkle!
+Can you believe it?
+It's been two thousand years since you started your adventure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なかなか、長生きするのね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're quite the long-liver, aren't you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私？　
+…失礼ね。私はもちろん、いつまでもピチピチの妖精の乙女よ。
+妖精って、そういう生き物だから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me?
+...How rude. I'm still a sprightly fairy maiden, of course.
+That's just how fairies are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも大変！
+この世界も、永遠に続くわけではないの。
+滅びの時は、穏やかに迫りつつある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But oh dear!
+This world won't last forever.
+The end draws near, gently but surely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻…
+私にも確かなことはわからない。
+だけど、4千年をこえると、この世界には綻びが生じ
+様々な異常現象が発生するといわれているわ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok...
+Even I don’t know exactly what that means.
+But it’s said that once the world surpasses four thousand years,
+it begins to unravel—strange phenomena start to appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残念ながら、この綻びを回避するすべは
+まだみつかっていないの。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, no way to prevent that unraveling has been found yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キミと、いつまでも冒険していたい…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to keep adventuring with you forever...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だから…
+これからは、少しゆっくり時間を進めましょう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So...
+How about we slow things down a little from here on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">薬草みーつけた！</t>
@@ -497,15 +584,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get it? Color-ful!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">チリンチリーン！
@@ -3152,7 +3230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3195,6 +3273,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3407,12 +3489,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H37" sqref="H37"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -3469,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" ht="12.8">
@@ -3492,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3522,7 +3604,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="12.8">
@@ -3545,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.8">
@@ -3568,7 +3650,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -3591,7 +3673,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -3614,7 +3696,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="12.8">
@@ -3637,7 +3719,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -3660,7 +3742,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3690,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -3713,7 +3795,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -3736,7 +3818,7 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -3759,7 +3841,7 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -3782,7 +3864,7 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -3805,7 +3887,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -3828,7 +3910,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -3851,7 +3933,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -3874,7 +3956,7 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" ht="13.8">
@@ -3897,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" ht="13.8">
@@ -3920,7 +4002,7 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" ht="13.8">
@@ -3943,7 +4025,7 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -3966,7 +4048,7 @@
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -3989,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -4013,7 +4095,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4044,7 +4126,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4075,7 +4157,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -4099,7 +4181,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4130,7 +4212,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -4154,7 +4236,7 @@
         <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -4178,7 +4260,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -4209,7 +4291,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4239,7 +4321,7 @@
         <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -4262,7 +4344,27 @@
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>550</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="B38" s="1">
+        <v>990</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4281,12 +4383,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K348"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K347" sqref="K347"/>
-      <selection pane="bottomLeft" activeCell="I317" sqref="I317"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K359" sqref="K359"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -4305,19 +4407,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4338,20 +4440,20 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="12.8">
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4359,346 +4461,356 @@
     </row>
     <row r="7" ht="12.8">
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="12.8">
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" ht="35.05">
       <c r="H13" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" ht="35.05">
+        <v>124</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" ht="12.8">
       <c r="H14" s="1">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" ht="35.05">
+        <v>125</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" ht="12.8">
       <c r="H15" s="1">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" ht="23.85">
+        <v>128</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" ht="35.05">
       <c r="H16" s="1">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>554</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" ht="35.05">
       <c r="H17" s="1">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" ht="34.3">
+        <v>132</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" ht="46.25">
       <c r="H18" s="1">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" ht="35.05">
+        <v>134</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" ht="22.35">
       <c r="H19" s="1">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>557</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" ht="12.8">
       <c r="H20" s="1">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>558</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" ht="12.8">
       <c r="H21" s="1">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" ht="12.8">
-      <c r="B22" s="4" t="s">
+      <c r="J21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" ht="23.85">
+      <c r="H22" s="1">
+        <v>229</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" ht="12.8">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" ht="35.05">
+      <c r="H26" s="1">
+        <v>201</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" ht="35.05">
+      <c r="H27" s="1">
+        <v>202</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" ht="23.85">
+      <c r="H28" s="1">
+        <v>203</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" ht="35.05">
+      <c r="H29" s="1">
+        <v>204</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" ht="34.3">
+      <c r="H30" s="1">
+        <v>205</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" ht="35.05">
+      <c r="H31" s="1">
+        <v>206</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" ht="12.8">
+      <c r="H32" s="1">
+        <v>207</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="H33" s="1">
+        <v>208</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" ht="12.8">
+      <c r="B35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" ht="23.85">
-      <c r="H25" s="1">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" ht="23.85">
+      <c r="H37" s="1">
         <v>210</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="H26" s="1">
+      <c r="I37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="H38" s="1">
         <v>211</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" ht="12.8">
-      <c r="I27" s="4"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" ht="12.8">
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" ht="12.8">
-      <c r="B30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="12.8">
-      <c r="A31" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="23.85">
-      <c r="H32" s="1">
-        <v>193</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="35.05">
-      <c r="H33" s="1">
-        <v>194</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="23.85">
-      <c r="H34" s="1">
-        <v>195</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="32.8">
-      <c r="H35" s="1">
-        <v>196</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="35.05">
-      <c r="H36" s="1">
-        <v>197</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K36" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="46.25">
-      <c r="H37" s="1">
-        <v>198</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="23.85">
-      <c r="H38" s="1">
-        <v>199</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K38" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="12.8">
+        <v>161</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
       <c r="I39" s="4"/>
       <c r="J39" s="10"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="12.8">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" ht="12.8">
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="12.8">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" ht="12.8">
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" ht="12.8">
       <c r="B42" s="4"/>
@@ -4708,635 +4820,530 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="12.8">
       <c r="A43" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="12.8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="23.85">
       <c r="H44" s="1">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="35.05">
       <c r="H45" s="1">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="12.8">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23.85">
       <c r="H46" s="1">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="23.85">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="32.8">
       <c r="H47" s="1">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="12.8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="35.05">
       <c r="H48" s="1">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>137</v>
+        <v>170</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>136</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="46.25">
       <c r="H49" s="1">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="12.8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="23.85">
       <c r="H50" s="1">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>137</v>
+        <v>174</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="K50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="23.85">
-      <c r="H51" s="1">
-        <v>191</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" t="s">
-        <v>573</v>
-      </c>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="12.8">
+      <c r="I51" s="4"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="12.8">
-      <c r="H52" s="1">
-        <v>192</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" t="s">
-        <v>574</v>
-      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.8">
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.8">
-      <c r="B54" s="4" t="s">
-        <v>138</v>
-      </c>
+    <row r="54" ht="12.8">
+      <c r="B54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" ht="12.8">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" ht="12.8">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" ht="12.8">
-      <c r="K57" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="12.8">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="12.8">
+      <c r="H56" s="1">
+        <v>184</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="35.05">
+      <c r="H57" s="1">
+        <v>185</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="12.8">
       <c r="H58" s="1">
+        <v>186</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="23.85">
+      <c r="H59" s="1">
+        <v>187</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K59" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="12.8">
+      <c r="H60" s="1">
+        <v>188</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="46.25">
+      <c r="H61" s="1">
+        <v>189</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="12.8">
+      <c r="H62" s="1">
+        <v>190</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="23.85">
+      <c r="H63" s="1">
+        <v>191</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K63" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="12.8">
+      <c r="H64" s="1">
+        <v>192</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="12.8">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="12.8">
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" ht="12.8">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" ht="12.8">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="12.8">
+      <c r="H70" s="1">
         <v>174</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K58" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="22.35">
-      <c r="H59" s="1">
+      <c r="I70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K70" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="22.35">
+      <c r="H71" s="1">
         <v>175</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K59" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="32.8">
-      <c r="H60" s="1">
+      <c r="I71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="32.8">
+      <c r="H72" s="1">
         <v>176</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K60" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="12.8">
-      <c r="H61" s="1">
+      <c r="I72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K72" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="12.8">
+      <c r="H73" s="1">
         <v>177</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="I73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="32.8">
+      <c r="H74" s="1">
         <v>178</v>
       </c>
-      <c r="K61" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="32.8">
-      <c r="H62" s="1">
-        <v>178</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="I74" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="22.35">
+      <c r="H75" s="1">
         <v>179</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="I75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="78" ht="22.35">
+      <c r="A78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" ht="12.8">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" ht="12.8">
+      <c r="H80" s="1">
         <v>180</v>
       </c>
-      <c r="K62" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="22.35">
-      <c r="H63" s="1">
-        <v>179</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="I80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" ht="35.05">
+      <c r="H81" s="1">
         <v>181</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="I81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="82" ht="23.85">
+      <c r="H82" s="1">
         <v>182</v>
       </c>
-      <c r="K63" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
-      <c r="B64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="66" ht="22.35">
-      <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" ht="12.8">
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="H68" s="1">
-        <v>180</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="I82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" ht="35.05">
+      <c r="H83" s="1">
         <v>183</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="69" ht="35.05">
-      <c r="H69" s="1">
-        <v>181</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="70" ht="23.85">
-      <c r="H70" s="1">
-        <v>182</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="71" ht="35.05">
-      <c r="H71" s="1">
-        <v>183</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
-      <c r="B72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="12.8">
-      <c r="A75" s="4" t="s">
+      <c r="I83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" ht="12.8">
+      <c r="B84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="12.8">
+      <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12.8"/>
-    <row r="77" s="1" customFormat="1" ht="12.8">
-      <c r="H77" s="1">
+    <row r="88" s="1" customFormat="1" ht="12.8"/>
+    <row r="89" s="1" customFormat="1" ht="12.8">
+      <c r="H89" s="1">
         <v>22</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K77" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="32.8">
-      <c r="H78" s="1">
+      <c r="I89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K89" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="32.8">
+      <c r="H90" s="1">
         <v>23</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K78" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="32.8">
-      <c r="H79" s="1">
+      <c r="I90" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="32.8">
+      <c r="H91" s="1">
         <v>24</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K79" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="12.8">
-      <c r="H80" s="1">
+      <c r="I91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="12.8">
+      <c r="H92" s="1">
         <v>25</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K80" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="12.8">
-      <c r="B81" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" ht="15.65" customHeight="1">
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" ht="12.8">
-      <c r="A83" s="4" t="s">
+      <c r="I92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K92" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="12.8">
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" ht="15.65" customHeight="1">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" ht="12.8">
+      <c r="A95" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" ht="23.85">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="1">
-        <v>169</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="85" ht="13.8">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="1">
-        <v>170</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="86" ht="23.85">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="1">
-        <v>171</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="87" ht="46.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="1">
-        <v>172</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="88" ht="35.05">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="1">
-        <v>173</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="89" ht="13.8">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="12.8">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="13.8">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="1">
-        <v>155</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="23.85">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="1">
-        <v>156</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="35.05">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="1">
-        <v>157</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="23.85">
-      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="1">
-        <v>158</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="35.05">
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" ht="23.85">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5345,19 +5352,19 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="1">
-        <v>159</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="35.05">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5366,47 +5373,61 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="1">
-        <v>160</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="12.8">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="98" ht="23.85">
       <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="12.8">
-      <c r="A99" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H98" s="1">
+        <v>171</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="99" ht="46.25">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="13.8">
+      <c r="H99" s="1">
+        <v>172</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="100" ht="35.05">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5415,19 +5436,19 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="1">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="23.85">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5435,90 +5456,81 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="1">
-        <v>162</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="35.05">
+      <c r="I101" s="7"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" ht="12.8">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="1">
-        <v>163</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="23.85">
-      <c r="A103" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="12.8">
+      <c r="A103" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="1">
-        <v>164</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="12.8">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="13.8">
       <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="12.8">
-      <c r="A105" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H104" s="1">
+        <v>155</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="23.85">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="13.8">
+      <c r="H105" s="1">
+        <v>156</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="35.05">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5527,19 +5539,19 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="13.8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="23.85">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5548,19 +5560,19 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="23.85">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="35.05">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5569,19 +5581,19 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="1">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="23.85">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="35.05">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5590,22 +5602,22 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="1">
-        <v>168</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>233</v>
+        <v>160</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.8">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -5618,7 +5630,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.8">
       <c r="A111" s="4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5630,7 +5642,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="23.85">
+    <row r="112" s="1" customFormat="1" ht="13.8">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5639,19 +5651,19 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="1">
-        <v>116</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>235</v>
+        <v>161</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="35.05">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="23.85">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5660,19 +5672,19 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="1">
-        <v>117</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="46.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="35.05">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5681,19 +5693,19 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="1">
-        <v>118</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>239</v>
+        <v>163</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="35.05">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="23.85">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5702,44 +5714,37 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="1">
-        <v>119</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>241</v>
+        <v>164</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="23.85">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="12.8">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="1">
-        <v>120</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>611</v>
-      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="12.8">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -5749,7 +5754,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="12.8">
+    <row r="118" s="1" customFormat="1" ht="13.8">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5757,25 +5762,41 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="22.35">
-      <c r="A119" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="H118" s="1">
+        <v>165</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="13.8">
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="13.8">
+      <c r="H119" s="1">
+        <v>166</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="23.85">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -5784,19 +5805,19 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="1">
-        <v>121</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>245</v>
+        <v>167</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="35.05">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="23.85">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5805,59 +5826,45 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="1">
-        <v>122</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>248</v>
+        <v>168</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="35.05">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="12.8">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="1">
-        <v>123</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="23.85">
-      <c r="A123" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="12.8">
+      <c r="A123" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="1">
-        <v>124</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>615</v>
-      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="23.85">
       <c r="A124" s="4"/>
@@ -5868,19 +5875,19 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="1">
-        <v>125</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J124" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>254</v>
       </c>
+      <c r="J124" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="K124" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="22.35">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="35.05">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5889,19 +5896,19 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="1">
-        <v>126</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J125" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>256</v>
       </c>
+      <c r="J125" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="K125" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="12.8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="46.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5909,25 +5916,41 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="12.8">
+      <c r="H126" s="1">
+        <v>118</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="35.05">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="12.8">
+      <c r="H127" s="1">
+        <v>119</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="23.85">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5935,15 +5958,24 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="22.35">
-      <c r="A129" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="4"/>
+      <c r="H128" s="1">
+        <v>120</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="12.8">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5953,7 +5985,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="23.85">
+    <row r="130" s="1" customFormat="1" ht="12.8">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5961,41 +5993,25 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="1">
-        <v>127</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="23.85">
-      <c r="A131" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="22.35">
+      <c r="A131" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="1">
-        <v>128</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="12.8">
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="13.8">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6003,25 +6019,41 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="12.8">
+      <c r="H132" s="1">
+        <v>121</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="35.05">
       <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="12.8">
+      <c r="H133" s="1">
+        <v>122</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="35.05">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6029,25 +6061,41 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="12.8">
-      <c r="A135" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="H134" s="1">
+        <v>123</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="23.85">
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="13.8">
+      <c r="H135" s="1">
+        <v>124</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="23.85">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6056,19 +6104,19 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1">
-        <v>129</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="J136" s="10" t="s">
-        <v>262</v>
+        <v>125</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="23.85">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="22.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6077,19 +6125,19 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1">
-        <v>130</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>263</v>
+        <v>126</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="23.85">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="12.8">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6097,41 +6145,25 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="1">
-        <v>131</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="23.85">
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="12.8">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="1">
-        <v>132</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="35.05">
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="12.8">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6139,39 +6171,23 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="1">
-        <v>133</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="35.05">
-      <c r="A141" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="22.35">
+      <c r="A141" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="1">
-        <v>134</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>625</v>
-      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="23.85">
       <c r="A142" s="4"/>
@@ -6182,16 +6198,16 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1">
-        <v>135</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>274</v>
+        <v>127</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="23.85">
@@ -6203,23 +6219,21 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1">
-        <v>136</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>275</v>
+        <v>128</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" ht="12.8">
       <c r="A144" s="4"/>
-      <c r="B144" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6231,7 +6245,9 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="12.8">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6242,9 +6258,7 @@
       <c r="K145" s="4"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="12.8">
-      <c r="A146" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -6255,26 +6269,19 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" s="1" customFormat="1" ht="23.85">
-      <c r="A147" s="4"/>
+    <row r="147" s="1" customFormat="1" ht="12.8">
+      <c r="A147" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="1">
-        <v>137</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>628</v>
-      </c>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="13.8">
       <c r="A148" s="4"/>
@@ -6285,19 +6292,19 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="1">
-        <v>138</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>279</v>
+        <v>129</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="13.8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="23.85">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6306,19 +6313,19 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="1">
-        <v>139</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="J149" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149" s="12" t="s">
         <v>282</v>
       </c>
+      <c r="J149" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="K149" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="35.05">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="23.85">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6327,16 +6334,16 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="1">
-        <v>140</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J150" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I150" s="12" t="s">
         <v>284</v>
       </c>
+      <c r="J150" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="K150" s="4" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" ht="23.85">
@@ -6348,16 +6355,16 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1">
-        <v>141</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J151" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I151" s="12" t="s">
         <v>286</v>
       </c>
+      <c r="J151" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="K151" s="4" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" ht="35.05">
@@ -6369,47 +6376,61 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1">
-        <v>142</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J152" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I152" s="12" t="s">
         <v>288</v>
       </c>
+      <c r="J152" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="K152" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="12.8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="35.05">
       <c r="A153" s="4"/>
-      <c r="B153" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="12.8">
-      <c r="A154" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H153" s="1">
+        <v>134</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="23.85">
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="13.8">
+      <c r="H154" s="1">
+        <v>135</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23.85">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6418,40 +6439,33 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1">
-        <v>143</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>290</v>
+        <v>136</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="35.05">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="12.8">
       <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="1">
-        <v>144</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="35.05">
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="12.8">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6459,41 +6473,25 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="1">
-        <v>145</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="35.05">
-      <c r="A158" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="12.8">
+      <c r="A158" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="1">
-        <v>146</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="46.25">
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="23.85">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6502,19 +6500,19 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="1">
-        <v>147</v>
-      </c>
-      <c r="I159" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J159" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="K159" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="12.8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="13.8">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6522,11 +6520,20 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="12.8">
+      <c r="H160" s="1">
+        <v>138</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="13.8">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6534,39 +6541,62 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="12.8">
+      <c r="H161" s="1">
+        <v>139</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="35.05">
       <c r="A162" s="4"/>
-      <c r="B162" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="12.8">
-      <c r="A163" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H162" s="1">
+        <v>140</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="23.85">
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="12.8">
+      <c r="H163" s="1">
+        <v>141</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="35.05">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6575,61 +6605,47 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1">
-        <v>148</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>299</v>
+        <v>142</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" ht="12.8">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="1">
-        <v>149</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="32.8">
-      <c r="A166" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="12.8">
+      <c r="A166" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="1">
-        <v>150</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="32.8">
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="13.8">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6638,19 +6654,19 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1">
-        <v>151</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>306</v>
+        <v>143</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="43.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="35.05">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6659,19 +6675,19 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1">
-        <v>152</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>307</v>
+        <v>144</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="32.8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="35.05">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6680,19 +6696,19 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="1">
-        <v>153</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>309</v>
+        <v>145</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="170" ht="32.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="35.05">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6701,1797 +6717,2017 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1">
-        <v>154</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="12.8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="46.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
+      <c r="H171" s="1">
+        <v>147</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="12.8">
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" s="1" customFormat="1" ht="12.8">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="12.8">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="12.8">
+      <c r="A175" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="12.8">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="1">
+        <v>148</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="12.8">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="1">
+        <v>149</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="32.8">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="1">
+        <v>150</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="32.8">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="1">
+        <v>151</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="43.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="1">
+        <v>152</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="32.8">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="1">
+        <v>153</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="182" ht="32.8">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="1">
+        <v>154</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="12.8">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="12.8">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="12.8">
+      <c r="A185" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="12.8"/>
-    <row r="175" s="1" customFormat="1" ht="12.8">
-      <c r="H175" s="1">
+    <row r="186" s="1" customFormat="1" ht="12.8"/>
+    <row r="187" s="1" customFormat="1" ht="12.8">
+      <c r="H187" s="1">
         <v>105</v>
       </c>
-      <c r="I175" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K175" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="22.35">
-      <c r="H176" s="1">
+      <c r="I187" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K187" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="22.35">
+      <c r="H188" s="1">
         <v>106</v>
       </c>
-      <c r="I176" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K176" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="32.8">
-      <c r="H177" s="1">
+      <c r="I188" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K188" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="32.8">
+      <c r="H189" s="1">
         <v>107</v>
       </c>
-      <c r="I177" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="K177" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="32.8">
-      <c r="H178" s="1">
+      <c r="I189" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K189" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="32.8">
+      <c r="H190" s="1">
         <v>108</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K178" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="22.35">
-      <c r="H179" s="1">
+      <c r="I190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K190" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="22.35">
+      <c r="H191" s="1">
         <v>109</v>
       </c>
-      <c r="I179" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K179" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="12.8">
-      <c r="B180" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="12.8">
-      <c r="A181" s="4" t="s">
+      <c r="I191" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K191" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="12.8">
+      <c r="B192" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="12.8">
+      <c r="A193" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="12.8"/>
-    <row r="183" s="1" customFormat="1" ht="12.8">
-      <c r="H183" s="1">
+    <row r="194" s="1" customFormat="1" ht="12.8"/>
+    <row r="195" s="1" customFormat="1" ht="12.8">
+      <c r="H195" s="1">
         <v>110</v>
       </c>
-      <c r="I183" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="K183" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23.85">
-      <c r="H184" s="1">
+      <c r="I195" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K195" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23.85">
+      <c r="H196" s="1">
         <v>111</v>
       </c>
-      <c r="I184" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J184" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K184" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23.85">
-      <c r="H185" s="1">
+      <c r="I196" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K196" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23.85">
+      <c r="H197" s="1">
         <v>112</v>
       </c>
-      <c r="I185" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J185" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K185" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="46.25">
-      <c r="H186" s="1">
+      <c r="I197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K197" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="46.25">
+      <c r="H198" s="1">
         <v>113</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J186" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K186" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23.85">
-      <c r="H187" s="1">
+      <c r="I198" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K198" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23.85">
+      <c r="H199" s="1">
         <v>114</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K187" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="188" ht="23.85">
-      <c r="H188" s="1">
+      <c r="I199" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K199" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="200" ht="23.85">
+      <c r="H200" s="1">
         <v>115</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J188" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="12.8">
-      <c r="B189" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="12.8">
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="22.35">
-      <c r="A191" s="4" t="s">
+      <c r="I200" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="12.8">
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="12.8">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="22.35">
+      <c r="A203" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="12.8"/>
-    <row r="193" s="1" customFormat="1" ht="12.8">
-      <c r="H193" s="1">
+    <row r="204" s="1" customFormat="1" ht="12.8"/>
+    <row r="205" s="1" customFormat="1" ht="12.8">
+      <c r="H205" s="1">
         <v>26</v>
       </c>
-      <c r="I193" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J193" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K193" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="32.8">
-      <c r="H194" s="1">
+      <c r="I205" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K205" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="32.8">
+      <c r="H206" s="1">
         <v>27</v>
       </c>
-      <c r="I194" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K194" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="22.35">
-      <c r="H195" s="1">
+      <c r="I206" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K206" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="22.35">
+      <c r="H207" s="1">
         <v>28</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K195" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="64.15">
-      <c r="H196" s="1">
+      <c r="I207" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K207" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="64.15">
+      <c r="H208" s="1">
         <v>29</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K196" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="32.8">
-      <c r="H197" s="1">
+      <c r="I208" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K208" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="32.8">
+      <c r="H209" s="1">
         <v>30</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K197" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="12.8">
-      <c r="H198" s="1">
+      <c r="I209" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K209" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="12.8">
+      <c r="H210" s="1">
         <v>31</v>
       </c>
-      <c r="I198" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="K198" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="12.8">
-      <c r="H199" s="1">
+      <c r="I210" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K210" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="12.8">
+      <c r="H211" s="1">
         <v>32</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K199" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="22.35">
-      <c r="H200" s="1">
+      <c r="I211" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K211" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="22.35">
+      <c r="H212" s="1">
         <v>33</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K200" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="201" ht="12.8">
-      <c r="H201" s="1">
+      <c r="I212" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K212" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="213" ht="12.8">
+      <c r="H213" s="1">
         <v>34</v>
       </c>
-      <c r="I201" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="202" ht="12.8">
-      <c r="B202" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" ht="15.65" customHeight="1"/>
-    <row r="204" ht="15.65" customHeight="1"/>
-    <row r="205" ht="15.65" customHeight="1"/>
-    <row r="206" ht="12.8">
-      <c r="A206" s="1" t="s">
+      <c r="I213" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="214" ht="12.8">
+      <c r="B214" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" ht="15.65" customHeight="1"/>
+    <row r="216" ht="15.65" customHeight="1"/>
+    <row r="217" ht="15.65" customHeight="1"/>
+    <row r="218" ht="12.8">
+      <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" ht="12.8">
-      <c r="H208" s="1">
+    <row r="220" ht="12.8">
+      <c r="H220" s="1">
         <v>35</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="K208" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="209" ht="12.8">
-      <c r="B209" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H209" s="1">
+      <c r="I220" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K220" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="221" ht="12.8">
+      <c r="B221" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H221" s="1">
         <v>36</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K209" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="210" ht="12.8">
-      <c r="B210" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H210" s="1">
+      <c r="I221" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K221" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="222" ht="12.8">
+      <c r="B222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H222" s="1">
         <v>37</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J210" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K210" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="211" ht="12.8">
-      <c r="I211" s="4"/>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" ht="12.8">
-      <c r="A212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I212" s="4"/>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" ht="22.35">
-      <c r="H213" s="1">
+      <c r="I222" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K222" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="223" ht="12.8">
+      <c r="I223" s="4"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="A224" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" ht="22.35">
+      <c r="H225" s="1">
         <v>38</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="K213" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="22.35">
-      <c r="H214" s="1">
+      <c r="I225" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K225" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="226" s="1" customFormat="1" ht="22.35">
+      <c r="H226" s="1">
         <v>39</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K214" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="215" ht="22.35">
-      <c r="H215" s="1">
+      <c r="I226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K226" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="227" ht="22.35">
+      <c r="H227" s="1">
         <v>40</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K215" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="216" ht="22.35">
-      <c r="H216" s="1">
+      <c r="I227" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K227" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="228" ht="22.35">
+      <c r="H228" s="1">
         <v>41</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="217" ht="22.35">
-      <c r="H217" s="1">
+      <c r="I228" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="229" ht="22.35">
+      <c r="H229" s="1">
         <v>42</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K217" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="218" ht="32.8">
-      <c r="H218" s="1">
+      <c r="I229" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K229" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="230" ht="32.8">
+      <c r="H230" s="1">
         <v>43</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="K218" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="219" ht="12.8">
-      <c r="B219" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J219" s="4"/>
-    </row>
-    <row r="220" ht="12.8">
-      <c r="A220" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" ht="12.8">
-      <c r="H221" s="1">
+      <c r="I230" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K230" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="231" ht="12.8">
+      <c r="B231" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="A232" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J232" s="4"/>
+    </row>
+    <row r="233" ht="12.8">
+      <c r="H233" s="1">
         <v>44</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K221" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="222" s="1" customFormat="1" ht="12.8">
-      <c r="B222" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" s="1" customFormat="1" ht="12.8"/>
-    <row r="224" s="1" customFormat="1" ht="12.8">
-      <c r="A224" s="4" t="s">
+      <c r="I233" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J233" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="K233" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" ht="12.8">
+      <c r="B234" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" ht="12.8"/>
+    <row r="236" s="1" customFormat="1" ht="12.8">
+      <c r="A236" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" ht="23.85">
-      <c r="H225" s="1">
+    <row r="237" s="1" customFormat="1" ht="23.85">
+      <c r="H237" s="1">
         <v>93</v>
       </c>
-      <c r="I225" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K225" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="32.8">
-      <c r="H226" s="1">
+      <c r="I237" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="K237" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="32.8">
+      <c r="H238" s="1">
         <v>94</v>
       </c>
-      <c r="I226" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="K226" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="227" s="1" customFormat="1" ht="32.8">
-      <c r="H227" s="1">
+      <c r="I238" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K238" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="32.8">
+      <c r="H239" s="1">
         <v>95</v>
       </c>
-      <c r="I227" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K227" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="228" s="1" customFormat="1" ht="32.8">
-      <c r="H228" s="1">
+      <c r="I239" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K239" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" ht="32.8">
+      <c r="H240" s="1">
         <v>96</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K228" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="229" s="1" customFormat="1" ht="12.8">
-      <c r="H229" s="1">
+      <c r="I240" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K240" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="12.8">
+      <c r="H241" s="1">
         <v>97</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K229" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="230" s="1" customFormat="1" ht="12.8">
-      <c r="H230" s="1">
+      <c r="I241" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K241" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" ht="12.8">
+      <c r="H242" s="1">
         <v>98</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K230" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="231" s="1" customFormat="1" ht="32.8">
-      <c r="H231" s="1">
+      <c r="I242" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K242" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" ht="32.8">
+      <c r="H243" s="1">
         <v>99</v>
       </c>
-      <c r="I231" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K231" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="232" s="1" customFormat="1" ht="12.8">
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" s="1" customFormat="1" ht="12.8">
-      <c r="B233" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="1" ht="12.8">
-      <c r="A234" s="4" t="s">
+      <c r="I243" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K243" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" ht="12.8">
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="12.8">
+      <c r="B245" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="12.8">
+      <c r="A246" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" ht="23.85">
-      <c r="H235" s="1">
+    <row r="247" s="1" customFormat="1" ht="23.85">
+      <c r="H247" s="1">
         <v>100</v>
       </c>
-      <c r="I235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K235" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="236" s="1" customFormat="1" ht="43.25">
-      <c r="H236" s="1">
-        <v>101</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="K236" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="237" s="1" customFormat="1" ht="32.8">
-      <c r="H237" s="1">
-        <v>102</v>
-      </c>
-      <c r="I237" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="K237" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="1" ht="22.35">
-      <c r="H238" s="1">
-        <v>103</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K238" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="12.8">
-      <c r="H239" s="1">
-        <v>104</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K239" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="12.8">
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="12.8">
-      <c r="B241" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="1" ht="12.8">
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" s="1" customFormat="1" ht="12.8">
-      <c r="A243" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="1" ht="12.8">
-      <c r="H244" s="1">
-        <v>79</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K244" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="245" s="1" customFormat="1" ht="12.8">
-      <c r="H245" s="1">
-        <v>80</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K245" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="246" s="1" customFormat="1" ht="43.25">
-      <c r="H246" s="1">
-        <v>81</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K246" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="1" ht="22.35">
-      <c r="H247" s="1">
-        <v>82</v>
-      </c>
       <c r="I247" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="K247" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="1" ht="43.25">
       <c r="H248" s="1">
+        <v>101</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K248" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" ht="32.8">
+      <c r="H249" s="1">
+        <v>102</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K249" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="22.35">
+      <c r="H250" s="1">
+        <v>103</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K250" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="12.8">
+      <c r="H251" s="1">
+        <v>104</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K251" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="12.8">
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="12.8">
+      <c r="B253" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="12.8">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="12.8">
+      <c r="A255" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="12.8">
+      <c r="H256" s="1">
+        <v>79</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="12.8">
+      <c r="H257" s="1">
+        <v>80</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K257" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="43.25">
+      <c r="H258" s="1">
+        <v>81</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="K258" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" ht="22.35">
+      <c r="H259" s="1">
+        <v>82</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K259" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" ht="43.25">
+      <c r="H260" s="1">
         <v>83</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K248" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="1" ht="12.8">
-      <c r="H249" s="1">
+      <c r="I260" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K260" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" ht="12.8">
+      <c r="H261" s="1">
         <v>84</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K249" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="250" ht="12.8">
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" ht="12.8">
-      <c r="B251" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" ht="12.8">
-      <c r="B252" s="4"/>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" ht="12.8">
-      <c r="A253" s="4" t="s">
+      <c r="I261" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K261" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="262" ht="12.8">
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" ht="12.8">
+      <c r="B263" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" ht="12.8">
+      <c r="B264" s="4"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" ht="12.8">
+      <c r="A265" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" ht="12.8">
-      <c r="H254" s="1">
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" ht="12.8">
+      <c r="H266" s="1">
         <v>85</v>
       </c>
-      <c r="I254" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="255" ht="22.35">
-      <c r="H255" s="1">
+      <c r="I266" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="267" ht="22.35">
+      <c r="H267" s="1">
         <v>86</v>
       </c>
-      <c r="I255" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K255" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="256" ht="22.35">
-      <c r="H256" s="1">
-        <v>87</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K256" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="257" ht="43.25">
-      <c r="H257" s="1">
-        <v>88</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="258" ht="32.8">
-      <c r="H258" s="1">
-        <v>89</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="259" ht="22.35">
-      <c r="H259" s="1">
-        <v>90</v>
-      </c>
-      <c r="I259" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="260" ht="22.35">
-      <c r="H260" s="1">
-        <v>91</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="261" ht="12.8">
-      <c r="H261" s="1">
-        <v>92</v>
-      </c>
-      <c r="I261" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="262" ht="12.8">
-      <c r="B262" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="264" ht="12.8">
-      <c r="A264" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" ht="12.8">
-      <c r="H265" s="1">
-        <v>74</v>
-      </c>
-      <c r="I265" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="266" ht="32.8">
-      <c r="H266" s="1">
-        <v>75</v>
-      </c>
-      <c r="I266" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="267" ht="43.25">
-      <c r="H267" s="1">
-        <v>76</v>
-      </c>
       <c r="I267" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="268" ht="22.35">
       <c r="H268" s="1">
+        <v>87</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="269" ht="43.25">
+      <c r="H269" s="1">
+        <v>88</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="270" ht="32.8">
+      <c r="H270" s="1">
+        <v>89</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="271" ht="22.35">
+      <c r="H271" s="1">
+        <v>90</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="272" ht="22.35">
+      <c r="H272" s="1">
+        <v>91</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="273" ht="12.8">
+      <c r="H273" s="1">
+        <v>92</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="274" ht="12.8">
+      <c r="B274" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="A276" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="H277" s="1">
+        <v>74</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="278" ht="32.8">
+      <c r="H278" s="1">
+        <v>75</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="279" ht="43.25">
+      <c r="H279" s="1">
+        <v>76</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="280" ht="22.35">
+      <c r="H280" s="1">
         <v>77</v>
       </c>
-      <c r="I268" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="269" ht="32.8">
-      <c r="H269" s="1">
+      <c r="I280" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="281" ht="32.8">
+      <c r="H281" s="1">
         <v>78</v>
       </c>
-      <c r="I269" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="270" ht="12.8">
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="1"/>
-    </row>
-    <row r="271" ht="12.8">
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" s="1" customFormat="1" ht="12.8">
-      <c r="B272" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" s="1" customFormat="1" ht="12.8"/>
-    <row r="274" s="1" customFormat="1" ht="12.8">
-      <c r="A274" s="4" t="s">
+      <c r="I281" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="282" ht="12.8">
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" ht="12.8">
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" s="1" customFormat="1" ht="12.8">
+      <c r="B284" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="1" ht="12.8"/>
+    <row r="286" s="1" customFormat="1" ht="12.8">
+      <c r="A286" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" ht="23.85">
-      <c r="H275" s="1">
+    <row r="287" s="1" customFormat="1" ht="23.85">
+      <c r="H287" s="1">
         <v>66</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J275" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="K275" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="276" s="1" customFormat="1" ht="22.35">
-      <c r="H276" s="1">
-        <v>67</v>
-      </c>
-      <c r="I276" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K276" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="277" s="1" customFormat="1" ht="12.8">
-      <c r="H277" s="1">
-        <v>68</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K277" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="278" s="1" customFormat="1" ht="22.35">
-      <c r="H278" s="1">
-        <v>69</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K278" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="279" s="1" customFormat="1" ht="32.8">
-      <c r="H279" s="1">
-        <v>70</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K279" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="280" s="1" customFormat="1" ht="32.8">
-      <c r="H280" s="1">
-        <v>71</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="K280" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="281" s="1" customFormat="1" ht="22.35">
-      <c r="H281" s="1">
-        <v>72</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K281" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="282" s="1" customFormat="1" ht="22.35">
-      <c r="H282" s="1">
-        <v>73</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J282" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K282" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="283" s="1" customFormat="1" ht="12.8">
-      <c r="B283" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="284" s="1" customFormat="1" ht="12.8">
-      <c r="A284" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="285" s="1" customFormat="1" ht="12.8">
-      <c r="H285" s="1">
-        <v>60</v>
-      </c>
-      <c r="I285" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J285" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="K285" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="286" s="1" customFormat="1" ht="43.25">
-      <c r="H286" s="1">
-        <v>61</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J286" s="4" t="s">
+      <c r="I287" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="K286" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="287" s="1" customFormat="1" ht="22.35">
-      <c r="H287" s="1">
-        <v>62</v>
-      </c>
-      <c r="I287" s="4" t="s">
+      <c r="J287" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="K287" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="1" ht="22.35">
       <c r="H288" s="1">
+        <v>67</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K288" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" ht="12.8">
+      <c r="H289" s="1">
+        <v>68</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K289" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" ht="22.35">
+      <c r="H290" s="1">
+        <v>69</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K290" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" ht="32.8">
+      <c r="H291" s="1">
+        <v>70</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="K291" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" ht="32.8">
+      <c r="H292" s="1">
+        <v>71</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K292" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" ht="22.35">
+      <c r="H293" s="1">
+        <v>72</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="K293" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" ht="22.35">
+      <c r="H294" s="1">
+        <v>73</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K294" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" ht="12.8">
+      <c r="B295" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" ht="12.8">
+      <c r="A296" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" ht="12.8">
+      <c r="H297" s="1">
+        <v>60</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J297" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="K297" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" ht="43.25">
+      <c r="H298" s="1">
+        <v>61</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K298" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" ht="22.35">
+      <c r="H299" s="1">
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K299" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" ht="22.35">
+      <c r="H300" s="1">
         <v>63</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K288" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="1" ht="22.35">
-      <c r="H289" s="1">
+      <c r="I300" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K300" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" ht="22.35">
+      <c r="H301" s="1">
         <v>64</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K289" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="290" ht="32.8">
-      <c r="H290" s="1">
+      <c r="I301" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="K301" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="302" ht="32.8">
+      <c r="H302" s="1">
         <v>65</v>
       </c>
-      <c r="I290" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="291" ht="12.8">
-      <c r="B291" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" s="1" customFormat="1" ht="12.8"/>
-    <row r="293" s="1" customFormat="1" ht="12.8"/>
-    <row r="294" s="1" customFormat="1" ht="12.8">
-      <c r="A294" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="1" ht="23.85">
-      <c r="H295" s="1">
-        <v>53</v>
-      </c>
-      <c r="I295" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J295" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K295" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="296" s="1" customFormat="1" ht="23.85">
-      <c r="H296" s="1">
-        <v>54</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="J296" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="K296" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="297" s="1" customFormat="1" ht="23.85">
-      <c r="H297" s="1">
-        <v>55</v>
-      </c>
-      <c r="I297" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="K297" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="1" ht="23.85">
-      <c r="H298" s="1">
-        <v>56</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="J298" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="K298" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="1" ht="12.8">
-      <c r="H299" s="1">
-        <v>57</v>
-      </c>
-      <c r="I299" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K299" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="1" ht="35.05">
-      <c r="H300" s="1">
-        <v>58</v>
-      </c>
-      <c r="I300" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J300" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="K300" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="301" ht="12.8">
-      <c r="H301" s="1">
-        <v>59</v>
-      </c>
-      <c r="I301" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J301" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K301" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="302" ht="12.8">
-      <c r="B302" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K302" s="1"/>
+      <c r="I302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="303" ht="12.8">
+      <c r="B303" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K303" s="1"/>
     </row>
     <row r="304" s="1" customFormat="1" ht="12.8"/>
     <row r="305" s="1" customFormat="1" ht="12.8"/>
     <row r="306" s="1" customFormat="1" ht="12.8">
       <c r="A306" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" ht="23.85">
+      <c r="H307" s="1">
+        <v>53</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J307" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="K307" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" ht="23.85">
+      <c r="H308" s="1">
+        <v>54</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="K308" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" ht="23.85">
+      <c r="H309" s="1">
+        <v>55</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="K309" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" ht="23.85">
+      <c r="H310" s="1">
+        <v>56</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="K310" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" ht="12.8">
+      <c r="H311" s="1">
+        <v>57</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K311" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" ht="35.05">
+      <c r="H312" s="1">
+        <v>58</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K312" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="313" ht="12.8">
+      <c r="H313" s="1">
+        <v>59</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="314" ht="12.8">
+      <c r="B314" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="316" s="1" customFormat="1" ht="12.8"/>
+    <row r="317" s="1" customFormat="1" ht="12.8"/>
+    <row r="318" s="1" customFormat="1" ht="12.8">
+      <c r="A318" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="12.8">
-      <c r="H307" s="1">
+    <row r="319" s="1" customFormat="1" ht="12.8">
+      <c r="H319" s="1">
         <v>45</v>
       </c>
-      <c r="I307" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="K307" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="1" ht="22.35">
-      <c r="H308" s="1">
+      <c r="I319" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J319" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K319" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="1" ht="22.35">
+      <c r="H320" s="1">
         <v>46</v>
       </c>
-      <c r="I308" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K308" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="1" ht="32.8">
-      <c r="H309" s="1">
+      <c r="I320" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K320" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" ht="32.8">
+      <c r="H321" s="1">
         <v>50</v>
       </c>
-      <c r="I309" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J309" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K309" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="1" ht="35.05">
-      <c r="H310" s="1">
+      <c r="I321" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K321" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" ht="35.05">
+      <c r="H322" s="1">
         <v>47</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="K310" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="1" ht="43.25">
-      <c r="H311" s="1">
+      <c r="I322" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K322" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" ht="43.25">
+      <c r="H323" s="1">
         <v>48</v>
       </c>
-      <c r="I311" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K311" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="312" ht="22.35">
-      <c r="H312" s="1">
+      <c r="I323" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K323" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="324" ht="22.35">
+      <c r="H324" s="1">
         <v>49</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K312" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="313" ht="12.8">
-      <c r="B313" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" s="1" customFormat="1" ht="12.8"/>
-    <row r="315" s="1" customFormat="1" ht="12.8"/>
-    <row r="316" s="1" customFormat="1" ht="12.8">
-      <c r="A316" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="317" s="1" customFormat="1" ht="22.35">
-      <c r="H317" s="1">
-        <v>1</v>
-      </c>
-      <c r="I317" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J317" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="K317" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="318" s="1" customFormat="1" ht="22.35">
-      <c r="H318" s="1">
-        <v>2</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="J318" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="K318" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="319" s="1" customFormat="1" ht="32.8">
-      <c r="H319" s="1">
-        <v>5</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J319" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K319" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="1" ht="43.25">
-      <c r="H320" s="1">
-        <v>6</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="K320" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="1" ht="43.25">
-      <c r="H321" s="1">
-        <v>212</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="K321" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" ht="22.35">
-      <c r="H322" s="1">
-        <v>52</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J322" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K322" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="1" ht="74.6">
-      <c r="H323" s="1">
-        <v>17</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="K323" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="324" ht="12.8">
-      <c r="H324" s="1">
-        <v>7</v>
-      </c>
       <c r="I324" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>170</v>
+        <v>496</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
     </row>
     <row r="325" ht="12.8">
       <c r="B325" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="327" ht="12.8">
-      <c r="A327" s="1" t="s">
+    <row r="326" s="1" customFormat="1" ht="12.8"/>
+    <row r="327" s="1" customFormat="1" ht="12.8"/>
+    <row r="328" s="1" customFormat="1" ht="12.8">
+      <c r="A328" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="1" ht="22.35">
+      <c r="H329" s="1">
+        <v>1</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K329" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="1" ht="22.35">
+      <c r="H330" s="1">
+        <v>2</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K330" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="1" ht="32.8">
+      <c r="H331" s="1">
+        <v>5</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K331" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="1" ht="43.25">
+      <c r="H332" s="1">
+        <v>6</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K332" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" ht="43.25">
+      <c r="H333" s="1">
+        <v>212</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K333" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" ht="22.35">
+      <c r="H334" s="1">
+        <v>52</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K334" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" ht="74.6">
+      <c r="H335" s="1">
+        <v>17</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K335" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="336" ht="12.8">
+      <c r="H336" s="1">
+        <v>7</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J336" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="337" ht="12.8">
+      <c r="B337" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="339" ht="12.8">
+      <c r="A339" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="328" ht="12.8">
-      <c r="D328" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="329" ht="22.35">
-      <c r="H329" s="1">
+    <row r="340" ht="12.8">
+      <c r="D340" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" ht="22.35">
+      <c r="H341" s="1">
         <v>8</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K329" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="330" ht="43.25">
-      <c r="H330" s="1">
+      <c r="I341" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K341" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="342" ht="43.25">
+      <c r="H342" s="1">
         <v>9</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="K330" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="331" ht="22.35">
-      <c r="B331" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H331" s="1">
+      <c r="I342" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K342" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="343" ht="22.35">
+      <c r="B343" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H343" s="1">
         <v>10</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K331" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="334" ht="12.8">
-      <c r="A334" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H334" s="1">
-        <v>11</v>
-      </c>
-      <c r="I334" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K334" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="335" ht="12.8">
-      <c r="B335" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H335" s="1">
-        <v>12</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="K335" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="336" ht="12.8">
-      <c r="B336" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H336" s="1">
-        <v>13</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J336" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K336" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="337" ht="12.8">
-      <c r="B337" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H337" s="1">
-        <v>14</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J337" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K337" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="338" ht="12.8">
-      <c r="B338" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="342" ht="12.8">
-      <c r="A342" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H342" s="1">
-        <v>15</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K342" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="343" ht="12.8">
-      <c r="B343" s="1" t="s">
-        <v>138</v>
+      <c r="I343" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K343" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="346" ht="12.8">
       <c r="A346" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="H346" s="1">
+        <v>11</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K346" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="347" ht="12.8">
+      <c r="B347" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="H347" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K347" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="348" ht="12.8">
       <c r="B348" s="1" t="s">
-        <v>138</v>
+        <v>523</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H348" s="1">
+        <v>13</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K348" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="349" ht="12.8">
+      <c r="B349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H349" s="1">
+        <v>14</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K349" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="350" ht="12.8">
+      <c r="B350" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="354" ht="12.8">
+      <c r="A354" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H354" s="1">
+        <v>15</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K354" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="355" ht="12.8">
+      <c r="B355" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="358" ht="12.8">
+      <c r="A358" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" ht="12.8">
+      <c r="H359" s="1">
+        <v>16</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K359" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="360" ht="12.8">
+      <c r="B360" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
@@ -1145,7 +1145,7 @@
   </si>
   <si>
     <t xml:space="preserve">With this policy, trash will mostly disappear.
-However, since it lowers the public morale,
+However, since it lowers the public morality,
 you'll eventually want to switch to a better waste management solution.</t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t xml:space="preserve">Putting up garbage dump signs and placing garbage containers
-will encourage residents to dispose of trash according to the public morale.</t>
+will encourage residents to dispose of trash according to the public morality.</t>
   </si>
   <si>
     <t xml:space="preserve">それに、掃除をしてくれる住民がいれば
@@ -4426,10 +4426,10 @@
   </sheetPr>
   <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K359" sqref="K359"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>

--- a/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="780">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -1099,6 +1099,34 @@
   <si>
     <t xml:space="preserve">Tinkle-tinkle!
 Your beginner adventurer period is over!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerun_nadenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっ、キミってば、一度も死ななかったのね？
+えらいえらい。はい、な～でな～で！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you didn’t die even once, huh?
+Good, good. Come here, let me give you some head pats!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerun_nadenade2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この期間にキミが死んだ回数は実に#1回…
+一体、何をしていたの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times you died during this period is actually #1...
+What on earth were you doing? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">さすがの私も、キミみたいな冒険者は初めてよ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even for me, I’ve never seen an adventurer quite like you...</t>
   </si>
   <si>
     <t xml:space="preserve">これからは死んだら
@@ -3589,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" ht="12.8">
@@ -3612,7 +3640,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3642,7 +3670,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="12.8">
@@ -3665,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.8">
@@ -3688,7 +3716,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -3711,7 +3739,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -3734,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="12.8">
@@ -3757,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -3780,7 +3808,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3810,7 +3838,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -3833,7 +3861,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -3856,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -3879,7 +3907,7 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -3902,7 +3930,7 @@
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -3925,7 +3953,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -3948,7 +3976,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -3971,7 +3999,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -3994,7 +4022,7 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" ht="13.8">
@@ -4017,7 +4045,7 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" ht="13.8">
@@ -4040,7 +4068,7 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" ht="13.8">
@@ -4063,7 +4091,7 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -4086,7 +4114,7 @@
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -4109,7 +4137,7 @@
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -4133,7 +4161,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4164,7 +4192,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4195,7 +4223,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -4219,7 +4247,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4250,7 +4278,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -4274,7 +4302,7 @@
         <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -4298,7 +4326,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -4329,7 +4357,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4359,7 +4387,7 @@
         <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -4382,7 +4410,7 @@
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -4405,7 +4433,7 @@
         <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -4424,12 +4452,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K360"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K359" sqref="K359"/>
-      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K362" sqref="K362"/>
+      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -4481,7 +4509,7 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="12.8">
@@ -4538,7 +4566,7 @@
         <v>124</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" ht="12.8">
@@ -4566,7 +4594,7 @@
         <v>128</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" ht="35.05">
@@ -4580,7 +4608,7 @@
         <v>130</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" ht="35.05">
@@ -4594,7 +4622,7 @@
         <v>132</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" ht="46.25">
@@ -4608,7 +4636,7 @@
         <v>134</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" ht="22.35">
@@ -4622,7 +4650,7 @@
         <v>136</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -4650,7 +4678,7 @@
         <v>138</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" ht="23.85">
@@ -4664,7 +4692,7 @@
         <v>140</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -4692,7 +4720,7 @@
         <v>143</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" ht="35.05">
@@ -4706,7 +4734,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" ht="35.05">
@@ -4720,7 +4748,7 @@
         <v>147</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" ht="23.85">
@@ -4734,7 +4762,7 @@
         <v>149</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" ht="35.05">
@@ -4748,7 +4776,7 @@
         <v>151</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" ht="34.3">
@@ -4762,7 +4790,7 @@
         <v>153</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" ht="35.05">
@@ -4776,7 +4804,7 @@
         <v>155</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -4790,7 +4818,7 @@
         <v>157</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -4838,7 +4866,7 @@
         <v>159</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -4852,7 +4880,7 @@
         <v>161</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" ht="12.8">
@@ -4895,7 +4923,7 @@
         <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="35.05">
@@ -4909,7 +4937,7 @@
         <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="23.85">
@@ -4923,7 +4951,7 @@
         <v>167</v>
       </c>
       <c r="K46" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="32.8">
@@ -4937,7 +4965,7 @@
         <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="35.05">
@@ -4951,7 +4979,7 @@
         <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="46.25">
@@ -4965,7 +4993,7 @@
         <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="23.85">
@@ -4979,7 +5007,7 @@
         <v>175</v>
       </c>
       <c r="K50" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="12.8">
@@ -5019,7 +5047,7 @@
         <v>177</v>
       </c>
       <c r="K56" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="35.05">
@@ -5033,7 +5061,7 @@
         <v>179</v>
       </c>
       <c r="K57" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="12.8">
@@ -5047,7 +5075,7 @@
         <v>181</v>
       </c>
       <c r="K58" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="23.85">
@@ -5061,7 +5089,7 @@
         <v>183</v>
       </c>
       <c r="K59" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="12.8">
@@ -5089,7 +5117,7 @@
         <v>185</v>
       </c>
       <c r="K61" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="12.8">
@@ -5117,7 +5145,7 @@
         <v>187</v>
       </c>
       <c r="K63" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="12.8">
@@ -5131,7 +5159,7 @@
         <v>189</v>
       </c>
       <c r="K64" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="12.8">
@@ -5170,7 +5198,7 @@
         <v>191</v>
       </c>
       <c r="K70" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="22.35">
@@ -5184,7 +5212,7 @@
         <v>193</v>
       </c>
       <c r="K71" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="32.8">
@@ -5198,7 +5226,7 @@
         <v>195</v>
       </c>
       <c r="K72" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="12.8">
@@ -5212,7 +5240,7 @@
         <v>197</v>
       </c>
       <c r="K73" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="32.8">
@@ -5226,7 +5254,7 @@
         <v>199</v>
       </c>
       <c r="K74" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" ht="22.35">
@@ -5240,7 +5268,7 @@
         <v>201</v>
       </c>
       <c r="K75" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="76" ht="12.8">
@@ -5269,7 +5297,7 @@
         <v>203</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" ht="35.05">
@@ -5283,7 +5311,7 @@
         <v>205</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" ht="23.85">
@@ -5297,7 +5325,7 @@
         <v>207</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" ht="35.05">
@@ -5311,7 +5339,7 @@
         <v>209</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -5337,7 +5365,7 @@
         <v>211</v>
       </c>
       <c r="K89" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" ht="32.8">
@@ -5351,7 +5379,7 @@
         <v>213</v>
       </c>
       <c r="K90" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" ht="32.8">
@@ -5365,7 +5393,7 @@
         <v>215</v>
       </c>
       <c r="K91" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" ht="12.8">
@@ -5379,7 +5407,7 @@
         <v>217</v>
       </c>
       <c r="K92" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" ht="12.8">
@@ -5422,7 +5450,7 @@
         <v>219</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" ht="13.8">
@@ -5443,7 +5471,7 @@
         <v>221</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" ht="23.85">
@@ -5464,7 +5492,7 @@
         <v>223</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" ht="46.25">
@@ -5485,7 +5513,7 @@
         <v>225</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" ht="35.05">
@@ -5506,7 +5534,7 @@
         <v>227</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="101" ht="13.8">
@@ -5567,7 +5595,7 @@
         <v>229</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" ht="23.85">
@@ -5588,7 +5616,7 @@
         <v>231</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" ht="35.05">
@@ -5609,7 +5637,7 @@
         <v>233</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" ht="23.85">
@@ -5630,7 +5658,7 @@
         <v>235</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" ht="35.05">
@@ -5651,7 +5679,7 @@
         <v>237</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" ht="35.05">
@@ -5672,7 +5700,7 @@
         <v>239</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.8">
@@ -5721,7 +5749,7 @@
         <v>241</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" ht="23.85">
@@ -5742,7 +5770,7 @@
         <v>243</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" ht="35.05">
@@ -5763,7 +5791,7 @@
         <v>245</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="23.85">
@@ -5784,7 +5812,7 @@
         <v>247</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" ht="12.8">
@@ -5833,7 +5861,7 @@
         <v>249</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" ht="13.8">
@@ -5875,7 +5903,7 @@
         <v>251</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" ht="23.85">
@@ -5896,7 +5924,7 @@
         <v>253</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" ht="12.8">
@@ -5945,7 +5973,7 @@
         <v>255</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" ht="35.05">
@@ -5966,7 +5994,7 @@
         <v>257</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" ht="46.25">
@@ -5987,7 +6015,7 @@
         <v>259</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" ht="35.05">
@@ -6008,7 +6036,7 @@
         <v>261</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" ht="23.85">
@@ -6029,7 +6057,7 @@
         <v>263</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" ht="12.8">
@@ -6090,7 +6118,7 @@
         <v>265</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" ht="35.05">
@@ -6111,7 +6139,7 @@
         <v>267</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" ht="35.05">
@@ -6132,7 +6160,7 @@
         <v>269</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" ht="23.85">
@@ -6153,7 +6181,7 @@
         <v>271</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" ht="23.85">
@@ -6174,7 +6202,7 @@
         <v>273</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" ht="22.35">
@@ -6195,7 +6223,7 @@
         <v>275</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" ht="12.8">
@@ -6268,57 +6296,73 @@
         <v>277</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="23.85">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1">
-        <v>128</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="J143" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I143" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="12.8">
+      <c r="J143" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="23.85">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
+      <c r="H144" s="1">
+        <v>231</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>283</v>
+      </c>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" s="1" customFormat="1" ht="12.8">
+    <row r="145" s="1" customFormat="1" ht="22.35">
       <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="H145" s="1">
+        <v>232</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="K145" s="4"/>
     </row>
-    <row r="146" s="1" customFormat="1" ht="12.8">
+    <row r="146" s="1" customFormat="1" ht="23.85">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6326,14 +6370,21 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
+      <c r="H146" s="1">
+        <v>128</v>
+      </c>
+      <c r="I146" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="147" s="1" customFormat="1" ht="12.8">
-      <c r="A147" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -6344,28 +6395,21 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
-    <row r="148" s="1" customFormat="1" ht="13.8">
+    <row r="148" s="1" customFormat="1" ht="12.8">
       <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="1">
-        <v>129</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J148" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="23.85">
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="12.8">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6373,41 +6417,25 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="1">
-        <v>130</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="23.85">
-      <c r="A150" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="12.8">
+      <c r="A150" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="1">
-        <v>131</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="23.85">
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="13.8">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -6416,19 +6444,19 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="35.05">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="23.85">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6437,19 +6465,19 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="35.05">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="23.85">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -6458,16 +6486,16 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="23.85">
@@ -6479,19 +6507,19 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="1">
-        <v>135</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>292</v>
+        <v>132</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="23.85">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="35.05">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6500,33 +6528,40 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1">
-        <v>136</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>294</v>
+        <v>133</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="12.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="35.05">
       <c r="A156" s="4"/>
-      <c r="B156" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="12.8">
+      <c r="H156" s="1">
+        <v>134</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="23.85">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6534,46 +6569,55 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="12.8">
-      <c r="A158" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H157" s="1">
+        <v>135</v>
+      </c>
+      <c r="I157" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="23.85">
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="23.85">
+      <c r="H158" s="1">
+        <v>136</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="12.8">
       <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="1">
-        <v>137</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J159" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="13.8">
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="12.8">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6581,41 +6625,25 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="1">
-        <v>138</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J160" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="13.8">
-      <c r="A161" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="12.8">
+      <c r="A161" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="1">
-        <v>139</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="J161" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="35.05">
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="23.85">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6624,19 +6652,19 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="23.85">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="13.8">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -6645,19 +6673,19 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="35.05">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="13.8">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6666,47 +6694,61 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="12.8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="35.05">
       <c r="A165" s="4"/>
-      <c r="B165" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="12.8">
-      <c r="A166" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H165" s="1">
+        <v>140</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="23.85">
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="13.8">
+      <c r="H166" s="1">
+        <v>141</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="35.05">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6715,61 +6757,47 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="35.05">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="12.8">
       <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="1">
-        <v>144</v>
-      </c>
-      <c r="I168" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="35.05">
-      <c r="A169" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="12.8">
+      <c r="A169" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="1">
-        <v>145</v>
-      </c>
-      <c r="I169" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="35.05">
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="13.8">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6778,19 +6806,19 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="46.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="35.05">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6799,19 +6827,19 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="12.8">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="35.05">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6819,11 +6847,20 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="12.8">
+      <c r="H172" s="1">
+        <v>145</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="35.05">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6831,28 +6868,42 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="12.8">
+      <c r="H173" s="1">
+        <v>146</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="46.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
+      <c r="H174" s="1">
+        <v>147</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="12.8">
-      <c r="A175" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -6871,62 +6922,39 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="1">
-        <v>148</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J176" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>667</v>
-      </c>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="12.8">
       <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="1">
-        <v>149</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="32.8">
-      <c r="A178" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="12.8">
+      <c r="A178" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="1">
-        <v>150</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="32.8">
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="12.8">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6935,19 +6963,19 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="1">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="J179" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="43.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="12.8">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6956,16 +6984,16 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="32.8">
@@ -6977,19 +7005,19 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="182" ht="32.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="32.8">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6998,1734 +7026,1737 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="1">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="12.8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="43.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="12.8">
+      <c r="H183" s="1">
+        <v>152</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="32.8">
+      <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="12.8">
-      <c r="A185" s="4" t="s">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="1">
+        <v>153</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="185" ht="32.8">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="1">
+        <v>154</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="12.8">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="12.8">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="12.8">
+      <c r="A188" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="12.8"/>
-    <row r="187" s="1" customFormat="1" ht="12.8">
-      <c r="H187" s="1">
+    <row r="189" s="1" customFormat="1" ht="12.8"/>
+    <row r="190" s="1" customFormat="1" ht="12.8">
+      <c r="H190" s="1">
         <v>105</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K187" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="22.35">
-      <c r="H188" s="1">
-        <v>106</v>
-      </c>
-      <c r="I188" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K188" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="32.8">
-      <c r="H189" s="1">
-        <v>107</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K189" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="32.8">
-      <c r="H190" s="1">
-        <v>108</v>
-      </c>
       <c r="I190" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="K190" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="22.35">
       <c r="H191" s="1">
+        <v>106</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K191" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="32.8">
+      <c r="H192" s="1">
+        <v>107</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K192" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="32.8">
+      <c r="H193" s="1">
+        <v>108</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K193" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="22.35">
+      <c r="H194" s="1">
         <v>109</v>
       </c>
-      <c r="I191" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K191" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="12.8">
-      <c r="B192" s="4" t="s">
+      <c r="I194" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K194" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="12.8">
+      <c r="B195" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="12.8">
-      <c r="A193" s="4" t="s">
+    <row r="196" s="1" customFormat="1" ht="12.8">
+      <c r="A196" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="12.8"/>
-    <row r="195" s="1" customFormat="1" ht="12.8">
-      <c r="H195" s="1">
+    <row r="197" s="1" customFormat="1" ht="12.8"/>
+    <row r="198" s="1" customFormat="1" ht="12.8">
+      <c r="H198" s="1">
         <v>110</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J195" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K195" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23.85">
-      <c r="H196" s="1">
-        <v>111</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J196" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K196" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23.85">
-      <c r="H197" s="1">
-        <v>112</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J197" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="K197" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="46.25">
-      <c r="H198" s="1">
-        <v>113</v>
-      </c>
       <c r="I198" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K198" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="23.85">
       <c r="H199" s="1">
+        <v>111</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K199" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="23.85">
+      <c r="H200" s="1">
+        <v>112</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K200" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="46.25">
+      <c r="H201" s="1">
+        <v>113</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K201" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="23.85">
+      <c r="H202" s="1">
         <v>114</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="J199" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K199" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="200" ht="23.85">
-      <c r="H200" s="1">
+      <c r="I202" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J202" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K202" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="203" ht="23.85">
+      <c r="H203" s="1">
         <v>115</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="12.8">
-      <c r="B201" s="4" t="s">
+      <c r="I203" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="12.8">
+      <c r="B204" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="202" s="1" customFormat="1" ht="12.8">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="22.35">
-      <c r="A203" s="4" t="s">
+    <row r="205" s="1" customFormat="1" ht="12.8">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="22.35">
+      <c r="A206" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="12.8"/>
-    <row r="205" s="1" customFormat="1" ht="12.8">
-      <c r="H205" s="1">
+    <row r="207" s="1" customFormat="1" ht="12.8"/>
+    <row r="208" s="1" customFormat="1" ht="12.8">
+      <c r="H208" s="1">
         <v>26</v>
       </c>
-      <c r="I205" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K205" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="32.8">
-      <c r="H206" s="1">
-        <v>27</v>
-      </c>
-      <c r="I206" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K206" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="22.35">
-      <c r="H207" s="1">
-        <v>28</v>
-      </c>
-      <c r="I207" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K207" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="64.15">
-      <c r="H208" s="1">
-        <v>29</v>
-      </c>
       <c r="I208" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="J208" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="K208" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="32.8">
       <c r="H209" s="1">
+        <v>27</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K209" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="22.35">
+      <c r="H210" s="1">
+        <v>28</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K210" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="64.15">
+      <c r="H211" s="1">
+        <v>29</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K211" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="32.8">
+      <c r="H212" s="1">
         <v>30</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K209" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="12.8">
-      <c r="H210" s="1">
+      <c r="I212" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K212" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="12.8">
+      <c r="H213" s="1">
         <v>31</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K210" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="12.8">
-      <c r="H211" s="1">
+      <c r="I213" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K213" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="12.8">
+      <c r="H214" s="1">
         <v>32</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I214" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J211" s="4" t="s">
+      <c r="J214" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K214" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" ht="22.35">
-      <c r="H212" s="1">
+    <row r="215" s="1" customFormat="1" ht="22.35">
+      <c r="H215" s="1">
         <v>33</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K212" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="213" ht="12.8">
-      <c r="H213" s="1">
+      <c r="I215" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K215" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="216" ht="12.8">
+      <c r="H216" s="1">
         <v>34</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="214" ht="12.8">
-      <c r="B214" s="4" t="s">
+      <c r="I216" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="217" ht="12.8">
+      <c r="B217" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" ht="15.65" customHeight="1"/>
-    <row r="216" ht="15.65" customHeight="1"/>
-    <row r="217" ht="15.65" customHeight="1"/>
-    <row r="218" ht="12.8">
-      <c r="A218" s="1" t="s">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" ht="15.65" customHeight="1"/>
+    <row r="219" ht="15.65" customHeight="1"/>
+    <row r="220" ht="15.65" customHeight="1"/>
+    <row r="221" ht="12.8">
+      <c r="A221" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="220" ht="12.8">
-      <c r="H220" s="1">
+    <row r="223" ht="12.8">
+      <c r="H223" s="1">
         <v>35</v>
       </c>
-      <c r="I220" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="K220" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="221" ht="12.8">
-      <c r="B221" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H221" s="1">
+      <c r="I223" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J223" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K223" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="B224" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H224" s="1">
         <v>36</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K221" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="222" ht="12.8">
-      <c r="B222" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H222" s="1">
+      <c r="I224" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K224" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="225" ht="12.8">
+      <c r="B225" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H225" s="1">
         <v>37</v>
       </c>
-      <c r="I222" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K222" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="223" ht="12.8">
-      <c r="I223" s="4"/>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" ht="12.8">
-      <c r="A224" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" ht="22.35">
-      <c r="H225" s="1">
-        <v>38</v>
-      </c>
       <c r="I225" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J225" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J225" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="K225" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="226" ht="12.8">
+      <c r="I226" s="4"/>
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" ht="12.8">
+      <c r="A227" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K225" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="22.35">
-      <c r="H226" s="1">
-        <v>39</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K226" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="227" ht="22.35">
-      <c r="H227" s="1">
-        <v>40</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K227" t="s">
-        <v>698</v>
-      </c>
+      <c r="I227" s="4"/>
+      <c r="J227" s="10"/>
     </row>
     <row r="228" ht="22.35">
       <c r="H228" s="1">
+        <v>38</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K228" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="1" ht="22.35">
+      <c r="H229" s="1">
+        <v>39</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K229" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="230" ht="22.35">
+      <c r="H230" s="1">
+        <v>40</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="K230" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="231" ht="22.35">
+      <c r="H231" s="1">
         <v>41</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K228" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="229" ht="22.35">
-      <c r="H229" s="1">
+      <c r="I231" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="232" ht="22.35">
+      <c r="H232" s="1">
         <v>42</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K229" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="230" ht="32.8">
-      <c r="H230" s="1">
+      <c r="I232" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K232" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="233" ht="32.8">
+      <c r="H233" s="1">
         <v>43</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K230" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="231" ht="12.8">
-      <c r="B231" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J231" s="4"/>
-    </row>
-    <row r="232" ht="12.8">
-      <c r="A232" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" ht="12.8">
-      <c r="H233" s="1">
-        <v>44</v>
-      </c>
       <c r="I233" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="J233" s="10" t="s">
-        <v>392</v>
+        <v>397</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="K233" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="1" ht="12.8">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="234" ht="12.8">
       <c r="B234" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="235" s="1" customFormat="1" ht="12.8"/>
-    <row r="236" s="1" customFormat="1" ht="12.8">
-      <c r="A236" s="4" t="s">
+      <c r="J234" s="4"/>
+    </row>
+    <row r="235" ht="12.8">
+      <c r="A235" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J235" s="4"/>
+    </row>
+    <row r="236" ht="12.8">
+      <c r="H236" s="1">
+        <v>44</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K236" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" ht="12.8">
+      <c r="B237" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="12.8"/>
+    <row r="239" s="1" customFormat="1" ht="12.8">
+      <c r="A239" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="237" s="1" customFormat="1" ht="23.85">
-      <c r="H237" s="1">
+    <row r="240" s="1" customFormat="1" ht="23.85">
+      <c r="H240" s="1">
         <v>93</v>
       </c>
-      <c r="I237" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="K237" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="1" ht="32.8">
-      <c r="H238" s="1">
+      <c r="I240" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J240" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K240" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="32.8">
+      <c r="H241" s="1">
         <v>94</v>
       </c>
-      <c r="I238" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K238" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="32.8">
-      <c r="H239" s="1">
+      <c r="I241" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K241" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" ht="32.8">
+      <c r="H242" s="1">
         <v>95</v>
       </c>
-      <c r="I239" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K239" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="32.8">
-      <c r="H240" s="1">
-        <v>96</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K240" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="12.8">
-      <c r="H241" s="1">
-        <v>97</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K241" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="1" ht="12.8">
-      <c r="H242" s="1">
-        <v>98</v>
-      </c>
       <c r="I242" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K242" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" s="1" customFormat="1" ht="32.8">
       <c r="H243" s="1">
+        <v>96</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K243" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" ht="12.8">
+      <c r="H244" s="1">
+        <v>97</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K244" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="12.8">
+      <c r="H245" s="1">
+        <v>98</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K245" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="32.8">
+      <c r="H246" s="1">
         <v>99</v>
       </c>
-      <c r="I243" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K243" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="1" ht="12.8">
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" s="1" customFormat="1" ht="12.8">
-      <c r="B245" s="4" t="s">
+      <c r="I246" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K246" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" ht="12.8">
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+    </row>
+    <row r="248" s="1" customFormat="1" ht="12.8">
+      <c r="B248" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="246" s="1" customFormat="1" ht="12.8">
-      <c r="A246" s="4" t="s">
+    <row r="249" s="1" customFormat="1" ht="12.8">
+      <c r="A249" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="247" s="1" customFormat="1" ht="23.85">
-      <c r="H247" s="1">
+    <row r="250" s="1" customFormat="1" ht="23.85">
+      <c r="H250" s="1">
         <v>100</v>
       </c>
-      <c r="I247" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K247" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="248" s="1" customFormat="1" ht="43.25">
-      <c r="H248" s="1">
+      <c r="I250" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K250" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="43.25">
+      <c r="H251" s="1">
         <v>101</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K248" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="1" ht="32.8">
-      <c r="H249" s="1">
+      <c r="I251" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K251" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="32.8">
+      <c r="H252" s="1">
         <v>102</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K249" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="250" s="1" customFormat="1" ht="22.35">
-      <c r="H250" s="1">
+      <c r="I252" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="K252" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="22.35">
+      <c r="H253" s="1">
         <v>103</v>
       </c>
-      <c r="I250" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K250" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="251" s="1" customFormat="1" ht="12.8">
-      <c r="H251" s="1">
+      <c r="I253" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J253" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K253" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="12.8">
+      <c r="H254" s="1">
         <v>104</v>
       </c>
-      <c r="I251" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K251" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="252" s="1" customFormat="1" ht="12.8">
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-    </row>
-    <row r="253" s="1" customFormat="1" ht="12.8">
-      <c r="B253" s="4" t="s">
+      <c r="I254" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K254" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="12.8">
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="12.8">
+      <c r="B256" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="254" s="1" customFormat="1" ht="12.8">
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" s="1" customFormat="1" ht="12.8">
-      <c r="A255" s="4" t="s">
+    <row r="257" s="1" customFormat="1" ht="12.8">
+      <c r="B257" s="4"/>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="12.8">
+      <c r="A258" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="256" s="1" customFormat="1" ht="12.8">
-      <c r="H256" s="1">
+    <row r="259" s="1" customFormat="1" ht="12.8">
+      <c r="H259" s="1">
         <v>79</v>
       </c>
-      <c r="I256" s="4" t="s">
+      <c r="I259" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J256" s="10" t="s">
+      <c r="J259" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K256" t="s">
+      <c r="K259" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="257" s="1" customFormat="1" ht="12.8">
-      <c r="H257" s="1">
+    <row r="260" s="1" customFormat="1" ht="12.8">
+      <c r="H260" s="1">
         <v>80</v>
       </c>
-      <c r="I257" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="K257" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="258" s="1" customFormat="1" ht="43.25">
-      <c r="H258" s="1">
+      <c r="I260" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K260" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" ht="43.25">
+      <c r="H261" s="1">
         <v>81</v>
       </c>
-      <c r="I258" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K258" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="259" s="1" customFormat="1" ht="22.35">
-      <c r="H259" s="1">
+      <c r="I261" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K261" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="1" ht="22.35">
+      <c r="H262" s="1">
         <v>82</v>
       </c>
-      <c r="I259" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K259" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="260" s="1" customFormat="1" ht="43.25">
-      <c r="H260" s="1">
+      <c r="I262" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K262" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="263" s="1" customFormat="1" ht="43.25">
+      <c r="H263" s="1">
         <v>83</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K260" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="261" s="1" customFormat="1" ht="12.8">
-      <c r="H261" s="1">
+      <c r="I263" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K263" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="1" ht="12.8">
+      <c r="H264" s="1">
         <v>84</v>
       </c>
-      <c r="I261" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="K261" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="262" ht="12.8">
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" ht="12.8">
-      <c r="B263" s="4" t="s">
+      <c r="I264" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K264" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="265" ht="12.8">
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" ht="12.8">
+      <c r="B266" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" ht="12.8">
-      <c r="B264" s="4"/>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" ht="12.8">
-      <c r="A265" s="4" t="s">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" ht="12.8">
+      <c r="B267" s="4"/>
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" ht="12.8">
+      <c r="A268" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" ht="12.8">
-      <c r="H266" s="1">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" ht="12.8">
+      <c r="H269" s="1">
         <v>85</v>
       </c>
-      <c r="I266" s="4" t="s">
+      <c r="I269" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J266" s="10" t="s">
+      <c r="J269" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K266" s="1" t="s">
+      <c r="K269" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="267" ht="22.35">
-      <c r="H267" s="1">
+    <row r="270" ht="22.35">
+      <c r="H270" s="1">
         <v>86</v>
       </c>
-      <c r="I267" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="268" ht="22.35">
-      <c r="H268" s="1">
-        <v>87</v>
-      </c>
-      <c r="I268" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="269" ht="43.25">
-      <c r="H269" s="1">
-        <v>88</v>
-      </c>
-      <c r="I269" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="270" ht="32.8">
-      <c r="H270" s="1">
-        <v>89</v>
-      </c>
       <c r="I270" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" ht="22.35">
       <c r="H271" s="1">
+        <v>87</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="272" ht="43.25">
+      <c r="H272" s="1">
+        <v>88</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="273" ht="32.8">
+      <c r="H273" s="1">
+        <v>89</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="274" ht="22.35">
+      <c r="H274" s="1">
         <v>90</v>
       </c>
-      <c r="I271" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="272" ht="22.35">
-      <c r="H272" s="1">
+      <c r="I274" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="275" ht="22.35">
+      <c r="H275" s="1">
         <v>91</v>
       </c>
-      <c r="I272" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K272" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="273" ht="12.8">
-      <c r="H273" s="1">
+      <c r="I275" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="H276" s="1">
         <v>92</v>
       </c>
-      <c r="I273" s="4" t="s">
+      <c r="I276" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K273" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="274" ht="12.8">
-      <c r="B274" s="4" t="s">
+      <c r="J276" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="B277" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K274" s="1"/>
-    </row>
-    <row r="276" ht="12.8">
-      <c r="A276" s="4" t="s">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="279" ht="12.8">
+      <c r="A279" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" ht="12.8">
-      <c r="H277" s="1">
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" ht="12.8">
+      <c r="H280" s="1">
         <v>74</v>
       </c>
-      <c r="I277" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J277" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="K277" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="278" ht="32.8">
-      <c r="H278" s="1">
-        <v>75</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K278" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="279" ht="43.25">
-      <c r="H279" s="1">
-        <v>76</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K279" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="280" ht="22.35">
-      <c r="H280" s="1">
-        <v>77</v>
-      </c>
       <c r="I280" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="J280" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="281" ht="32.8">
       <c r="H281" s="1">
+        <v>75</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="282" ht="43.25">
+      <c r="H282" s="1">
+        <v>76</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="283" ht="22.35">
+      <c r="H283" s="1">
+        <v>77</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="284" ht="32.8">
+      <c r="H284" s="1">
         <v>78</v>
       </c>
-      <c r="I281" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K281" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="282" ht="12.8">
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="1"/>
-    </row>
-    <row r="283" ht="12.8">
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" s="1" customFormat="1" ht="12.8">
-      <c r="B284" s="4" t="s">
+      <c r="I284" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="285" ht="12.8">
+      <c r="I285" s="4"/>
+      <c r="J285" s="4"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" ht="12.8">
+      <c r="I286" s="4"/>
+      <c r="J286" s="4"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" s="1" customFormat="1" ht="12.8">
+      <c r="B287" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="285" s="1" customFormat="1" ht="12.8"/>
-    <row r="286" s="1" customFormat="1" ht="12.8">
-      <c r="A286" s="4" t="s">
+    <row r="288" s="1" customFormat="1" ht="12.8"/>
+    <row r="289" s="1" customFormat="1" ht="12.8">
+      <c r="A289" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" ht="23.85">
-      <c r="H287" s="1">
+    <row r="290" s="1" customFormat="1" ht="23.85">
+      <c r="H290" s="1">
         <v>66</v>
       </c>
-      <c r="I287" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="J287" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K287" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="288" s="1" customFormat="1" ht="22.35">
-      <c r="H288" s="1">
+      <c r="I290" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J290" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="K290" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" ht="22.35">
+      <c r="H291" s="1">
         <v>67</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K288" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="1" ht="12.8">
-      <c r="H289" s="1">
+      <c r="I291" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K291" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" ht="12.8">
+      <c r="H292" s="1">
         <v>68</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K289" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="290" s="1" customFormat="1" ht="22.35">
-      <c r="H290" s="1">
-        <v>69</v>
-      </c>
-      <c r="I290" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K290" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="291" s="1" customFormat="1" ht="32.8">
-      <c r="H291" s="1">
-        <v>70</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K291" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="292" s="1" customFormat="1" ht="32.8">
-      <c r="H292" s="1">
-        <v>71</v>
-      </c>
       <c r="I292" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K292" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" s="1" customFormat="1" ht="22.35">
       <c r="H293" s="1">
+        <v>69</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K293" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" ht="32.8">
+      <c r="H294" s="1">
+        <v>70</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K294" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" ht="32.8">
+      <c r="H295" s="1">
+        <v>71</v>
+      </c>
+      <c r="I295" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J295" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K295" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" ht="22.35">
+      <c r="H296" s="1">
         <v>72</v>
       </c>
-      <c r="I293" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J293" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="K293" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="294" s="1" customFormat="1" ht="22.35">
-      <c r="H294" s="1">
+      <c r="I296" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K296" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" ht="22.35">
+      <c r="H297" s="1">
         <v>73</v>
       </c>
-      <c r="I294" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J294" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K294" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="1" ht="12.8">
-      <c r="B295" s="4" t="s">
+      <c r="I297" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K297" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" ht="12.8">
+      <c r="B298" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="1" ht="12.8">
-      <c r="A296" s="4" t="s">
+    <row r="299" s="1" customFormat="1" ht="12.8">
+      <c r="A299" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" ht="12.8">
-      <c r="H297" s="1">
+    <row r="300" s="1" customFormat="1" ht="12.8">
+      <c r="H300" s="1">
         <v>60</v>
       </c>
-      <c r="I297" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="K297" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="1" ht="43.25">
-      <c r="H298" s="1">
+      <c r="I300" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J300" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="K300" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" ht="43.25">
+      <c r="H301" s="1">
         <v>61</v>
       </c>
-      <c r="I298" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="J298" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K298" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="1" ht="22.35">
-      <c r="H299" s="1">
+      <c r="I301" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K301" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" ht="22.35">
+      <c r="H302" s="1">
         <v>62</v>
       </c>
-      <c r="I299" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="K299" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="1" ht="22.35">
-      <c r="H300" s="1">
+      <c r="I302" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K302" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="1" ht="22.35">
+      <c r="H303" s="1">
         <v>63</v>
       </c>
-      <c r="I300" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="J300" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K300" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="301" s="1" customFormat="1" ht="22.35">
-      <c r="H301" s="1">
+      <c r="I303" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="K303" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" ht="22.35">
+      <c r="H304" s="1">
         <v>64</v>
       </c>
-      <c r="I301" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J301" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K301" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="302" ht="32.8">
-      <c r="H302" s="1">
+      <c r="I304" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="K304" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="305" ht="32.8">
+      <c r="H305" s="1">
         <v>65</v>
       </c>
-      <c r="I302" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="J302" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="303" ht="12.8">
-      <c r="B303" s="4" t="s">
+      <c r="I305" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="306" ht="12.8">
+      <c r="B306" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K303" s="1"/>
-    </row>
-    <row r="304" s="1" customFormat="1" ht="12.8"/>
-    <row r="305" s="1" customFormat="1" ht="12.8"/>
-    <row r="306" s="1" customFormat="1" ht="12.8">
-      <c r="A306" s="4" t="s">
+      <c r="K306" s="1"/>
+    </row>
+    <row r="307" s="1" customFormat="1" ht="12.8"/>
+    <row r="308" s="1" customFormat="1" ht="12.8"/>
+    <row r="309" s="1" customFormat="1" ht="12.8">
+      <c r="A309" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="307" s="1" customFormat="1" ht="23.85">
-      <c r="H307" s="1">
-        <v>53</v>
-      </c>
-      <c r="I307" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="K307" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="1" ht="23.85">
-      <c r="H308" s="1">
-        <v>54</v>
-      </c>
-      <c r="I308" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="J308" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="K308" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="1" ht="23.85">
-      <c r="H309" s="1">
-        <v>55</v>
-      </c>
-      <c r="I309" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="J309" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="K309" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="310" s="1" customFormat="1" ht="23.85">
       <c r="H310" s="1">
+        <v>53</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K310" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" ht="23.85">
+      <c r="H311" s="1">
+        <v>54</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J311" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K311" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" ht="23.85">
+      <c r="H312" s="1">
+        <v>55</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K312" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" ht="23.85">
+      <c r="H313" s="1">
         <v>56</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K310" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="1" ht="12.8">
-      <c r="H311" s="1">
+      <c r="I313" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="K313" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" ht="12.8">
+      <c r="H314" s="1">
         <v>57</v>
       </c>
-      <c r="I311" s="4" t="s">
+      <c r="I314" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J311" s="4" t="s">
+      <c r="J314" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K311" t="s">
+      <c r="K314" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" ht="35.05">
-      <c r="H312" s="1">
+    <row r="315" s="1" customFormat="1" ht="35.05">
+      <c r="H315" s="1">
         <v>58</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J312" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="K312" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="313" ht="12.8">
-      <c r="H313" s="1">
+      <c r="I315" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J315" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K315" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="316" ht="12.8">
+      <c r="H316" s="1">
         <v>59</v>
       </c>
-      <c r="I313" s="4" t="s">
+      <c r="I316" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J313" s="10" t="s">
+      <c r="J316" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K313" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="314" ht="12.8">
-      <c r="B314" s="4" t="s">
+      <c r="K316" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="317" ht="12.8">
+      <c r="B317" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K314" s="1"/>
-    </row>
-    <row r="316" s="1" customFormat="1" ht="12.8"/>
-    <row r="317" s="1" customFormat="1" ht="12.8"/>
-    <row r="318" s="1" customFormat="1" ht="12.8">
-      <c r="A318" s="4" t="s">
+      <c r="K317" s="1"/>
+    </row>
+    <row r="319" s="1" customFormat="1" ht="12.8"/>
+    <row r="320" s="1" customFormat="1" ht="12.8"/>
+    <row r="321" s="1" customFormat="1" ht="12.8">
+      <c r="A321" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="1" ht="12.8">
-      <c r="H319" s="1">
+    <row r="322" s="1" customFormat="1" ht="12.8">
+      <c r="H322" s="1">
         <v>45</v>
       </c>
-      <c r="I319" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="J319" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="K319" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="1" ht="22.35">
-      <c r="H320" s="1">
+      <c r="I322" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="K322" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" ht="22.35">
+      <c r="H323" s="1">
         <v>46</v>
       </c>
-      <c r="I320" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="K320" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="1" ht="32.8">
-      <c r="H321" s="1">
+      <c r="I323" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K323" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="324" s="1" customFormat="1" ht="32.8">
+      <c r="H324" s="1">
         <v>50</v>
       </c>
-      <c r="I321" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="K321" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" ht="35.05">
-      <c r="H322" s="1">
+      <c r="I324" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K324" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="1" ht="35.05">
+      <c r="H325" s="1">
         <v>47</v>
       </c>
-      <c r="I322" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J322" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K322" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="1" ht="43.25">
-      <c r="H323" s="1">
+      <c r="I325" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J325" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="K325" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="326" s="1" customFormat="1" ht="43.25">
+      <c r="H326" s="1">
         <v>48</v>
       </c>
-      <c r="I323" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K323" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="324" ht="22.35">
-      <c r="H324" s="1">
+      <c r="I326" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K326" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="327" ht="22.35">
+      <c r="H327" s="1">
         <v>49</v>
       </c>
-      <c r="I324" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="J324" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="325" ht="12.8">
-      <c r="B325" s="4" t="s">
+      <c r="I327" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="328" ht="12.8">
+      <c r="B328" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" s="1" customFormat="1" ht="12.8"/>
-    <row r="327" s="1" customFormat="1" ht="12.8"/>
-    <row r="328" s="1" customFormat="1" ht="12.8">
-      <c r="A328" s="4" t="s">
+      <c r="K328" s="1"/>
+    </row>
+    <row r="329" s="1" customFormat="1" ht="12.8"/>
+    <row r="330" s="1" customFormat="1" ht="12.8"/>
+    <row r="331" s="1" customFormat="1" ht="12.8">
+      <c r="A331" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="329" s="1" customFormat="1" ht="22.35">
-      <c r="H329" s="1">
+    <row r="332" s="1" customFormat="1" ht="22.35">
+      <c r="H332" s="1">
         <v>1</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K329" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="330" s="1" customFormat="1" ht="22.35">
-      <c r="H330" s="1">
+      <c r="I332" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K332" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" ht="22.35">
+      <c r="H333" s="1">
         <v>2</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K330" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="331" s="1" customFormat="1" ht="32.8">
-      <c r="H331" s="1">
+      <c r="I333" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K333" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" ht="32.8">
+      <c r="H334" s="1">
         <v>5</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="K331" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="332" s="1" customFormat="1" ht="43.25">
-      <c r="H332" s="1">
+      <c r="I334" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K334" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" ht="43.25">
+      <c r="H335" s="1">
         <v>6</v>
       </c>
-      <c r="I332" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="J332" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="K332" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="333" s="1" customFormat="1" ht="43.25">
-      <c r="H333" s="1">
+      <c r="I335" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="K335" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="336" s="1" customFormat="1" ht="43.25">
+      <c r="H336" s="1">
         <v>212</v>
       </c>
-      <c r="I333" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="K333" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="334" s="1" customFormat="1" ht="22.35">
-      <c r="H334" s="1">
+      <c r="I336" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K336" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="337" s="1" customFormat="1" ht="22.35">
+      <c r="H337" s="1">
         <v>52</v>
       </c>
-      <c r="I334" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="J334" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="K334" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="335" s="1" customFormat="1" ht="74.6">
-      <c r="H335" s="1">
+      <c r="I337" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K337" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="338" s="1" customFormat="1" ht="74.6">
+      <c r="H338" s="1">
         <v>17</v>
       </c>
-      <c r="I335" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="J335" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K335" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="336" ht="12.8">
-      <c r="H336" s="1">
+      <c r="I338" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K338" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="339" ht="12.8">
+      <c r="H339" s="1">
         <v>7</v>
       </c>
-      <c r="I336" s="4" t="s">
+      <c r="I339" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J336" s="10" t="s">
+      <c r="J339" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K336" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="337" ht="12.8">
-      <c r="B337" s="4" t="s">
+      <c r="K339" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="340" ht="12.8">
+      <c r="B340" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K337" s="1"/>
-    </row>
-    <row r="339" ht="12.8">
-      <c r="A339" s="1" t="s">
+      <c r="K340" s="1"/>
+    </row>
+    <row r="342" ht="12.8">
+      <c r="A342" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="340" ht="12.8">
-      <c r="D340" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="341" ht="22.35">
-      <c r="H341" s="1">
+    <row r="343" ht="12.8">
+      <c r="D343" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="344" ht="22.35">
+      <c r="H344" s="1">
         <v>8</v>
       </c>
-      <c r="I341" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="J341" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K341" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="342" ht="43.25">
-      <c r="H342" s="1">
+      <c r="I344" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="K344" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="345" ht="43.25">
+      <c r="H345" s="1">
         <v>9</v>
       </c>
-      <c r="I342" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="K342" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="343" ht="22.35">
-      <c r="B343" s="1" t="s">
+      <c r="I345" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="K345" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="346" ht="22.35">
+      <c r="B346" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H343" s="1">
+      <c r="H346" s="1">
         <v>10</v>
       </c>
-      <c r="I343" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="K343" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="346" ht="12.8">
-      <c r="A346" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H346" s="1">
+      <c r="I346" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K346" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="349" ht="12.8">
+      <c r="A349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H349" s="1">
         <v>11</v>
-      </c>
-      <c r="I346" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J346" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K346" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="347" ht="12.8">
-      <c r="B347" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H347" s="1">
-        <v>12</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K347" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="348" ht="12.8">
-      <c r="B348" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H348" s="1">
-        <v>13</v>
-      </c>
-      <c r="I348" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K348" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="349" ht="12.8">
-      <c r="B349" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H349" s="1">
-        <v>14</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>529</v>
@@ -8734,60 +8765,120 @@
         <v>530</v>
       </c>
       <c r="K349" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="350" ht="12.8">
       <c r="B350" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H350" s="1">
+        <v>12</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K350" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="351" ht="12.8">
+      <c r="B351" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H351" s="1">
+        <v>13</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K351" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="352" ht="12.8">
+      <c r="B352" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H352" s="1">
+        <v>14</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K352" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="353" ht="12.8">
+      <c r="B353" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D353" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="357" ht="12.8">
+      <c r="A357" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="354" ht="12.8">
-      <c r="A354" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H354" s="1">
+      <c r="H357" s="1">
         <v>15</v>
       </c>
-      <c r="I354" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="K354" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="355" ht="12.8">
-      <c r="B355" s="1" t="s">
+      <c r="I357" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K357" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="358" ht="12.8">
+      <c r="B358" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="358" ht="12.8">
-      <c r="A358" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="359" ht="12.8">
-      <c r="H359" s="1">
+    <row r="361" ht="12.8">
+      <c r="A361" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="362" ht="12.8">
+      <c r="H362" s="1">
         <v>16</v>
       </c>
-      <c r="I359" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J359" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="K359" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="360" ht="12.8">
-      <c r="B360" s="1" t="s">
+      <c r="I362" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K362" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="363" ht="12.8">
+      <c r="B363" s="1" t="s">
         <v>141</v>
       </c>
     </row>
